--- a/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1302,7 +1302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>121</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>130</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>137</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>144</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>151</v>
       </c>
@@ -4622,12 +4622,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK36">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
